--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <x:workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anask\Documents\UiPath\Automatische Kündigung Plus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d05ed731cd259912/Desktop/FH/S5/Robotic Process Automation with UiPath/Automatische Kündigung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0A5F1-5513-480E-8448-02F94DB875BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E6B0A5F1-5513-480E-8448-02F94DB875BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B2ECE0-7B35-411E-839C-3228E03470B3}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d05ed731cd259912/Desktop/FH/S5/Robotic Process Automation with UiPath/Automatische Kündigung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E6B0A5F1-5513-480E-8448-02F94DB875BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B2ECE0-7B35-411E-839C-3228E03470B3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E6B0A5F1-5513-480E-8448-02F94DB875BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E826D97-1083-40EE-82AC-788D35D1D37A}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
     <x:t>kundennummer</x:t>
   </x:si>
@@ -37,28 +37,13 @@
     <x:t>firmaadresse</x:t>
   </x:si>
   <x:si>
-    <x:t>0000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Herr Max Mustermann Musterstraße 12 12345 Musterstadt</x:t>
+    <x:t>6042591169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Herr Aehm Al Hariri Hauptstr. 78 52066 Aachen</x:t>
   </x:si>
   <x:si>
     <x:t>Telefónica Germany GmbH &amp; Co. OHG RE 90345 Nürnberg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65 000 0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frau Maria Mustermann Musterweg 2345 Musterstadt 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Telekom Deutschland GmbH, Landgrabenweg 151, 53227 Bonn,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6042591169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Herr Aehm Al Hariri Hauptstr. 78 52066 Aachen</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -391,7 +376,7 @@
   <x:dimension ref="A1:C1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C5" sqref="C5 A2:C5"/>
+      <x:selection activeCell="C7" sqref="C7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,28 +408,6 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
